--- a/biology/Histoire de la zoologie et de la botanique/Addison_Emery_Verrill/Addison_Emery_Verrill.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Addison_Emery_Verrill/Addison_Emery_Verrill.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Addison Emery Verrill est un zoologiste et un géologue américain, né le 9 février 1839 à Greenwood, Maine et mort le 10 décembre 1926 à Santa Barbara en Californie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l’âge de 13 ans, il apprend à reconnaître les minéraux et les roches qu’il rencontre dans les environs de sa ville natale. Il réalise alors une collection considérable. À 14 ans, sa famille emménage à Norway, dans le Maine, où il commence à s’intéresser à la flore et réalise un herbier de plusieurs centaines d’espèces. À 17 ans, Verrill a réalisé une importante collection de coquillages, d’insectes, de reptiles, d’oiseaux et de mammifères. Il est d’abord scolarisé à la Norway Liberal Institute avant de commencer à étudier à Harvard en mai 1859 sous la direction de Louis Agassiz (1807-1873).
 En 1860, il se joint à deux autres étudiants, Alpheus Hyatt (1838-1902) et Nathaniel Southgate Shaler (1841-1906), pour étudier les invertébrés marins des côtes du Maine. Verrill consacrera à ses animaux le reste de sa carrière. De 1860 à 1864, il est l’assistant d’Agassiz au sein du Museum of Comparative Zoology. Il obtient un Bachelor of Sciences à Harvard en 1862 et un Master of Arts honorifique de l’université Yale en 1867.
@@ -548,7 +562,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Keir B. Sterling, Richard P. Harmond, George A. Cevasco &amp; Lorne F. Hammond (dir.) (1997). Biographical dictionary of American and Canadian naturalists and environmentalists. Greenwood Press (Westport) : xix + 937 p.  (ISBN 978-0-313-23047-9)</t>
         </is>
